--- a/Project/static/download_example/return_data_statistics_dataset.xlsx
+++ b/Project/static/download_example/return_data_statistics_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Flask_London\Project\static\download_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2F1B40-C5DA-45CC-8DFC-AAF86F3E2778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026DAA77-40C9-43F5-A31B-D10F22D87C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C8E02F5-6FAD-495F-A07D-6CC1C3D723B6}"/>
   </bookViews>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>Time</t>
+    <t>Name Ticker</t>
   </si>
   <si>
-    <t>Name Ticker</t>
+    <t>Dates</t>
   </si>
 </sst>
 </file>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FA88C6-F03E-4952-B754-3BA44B8770AF}">
   <dimension ref="A1:D2500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,16 +412,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
